--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam10-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam10-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.78557366666666</v>
+        <v>68.44130066666666</v>
       </c>
       <c r="H2">
-        <v>146.356721</v>
+        <v>205.323902</v>
       </c>
       <c r="I2">
-        <v>0.3597500064892135</v>
+        <v>0.4535705444232658</v>
       </c>
       <c r="J2">
-        <v>0.3597500064892135</v>
+        <v>0.4535705444232658</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>46.25093466666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N2">
-        <v>138.752804</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9569015955251317</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P2">
-        <v>0.9569015955251318</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q2">
-        <v>2256.378380332854</v>
+        <v>0.6741239977997777</v>
       </c>
       <c r="R2">
-        <v>20307.40542299568</v>
+        <v>6.067115980197999</v>
       </c>
       <c r="S2">
-        <v>0.3442453551997049</v>
+        <v>9.134349770196041E-05</v>
       </c>
       <c r="T2">
-        <v>0.3442453551997049</v>
+        <v>9.134349770196041E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.78557366666666</v>
+        <v>68.44130066666666</v>
       </c>
       <c r="H3">
-        <v>146.356721</v>
+        <v>205.323902</v>
       </c>
       <c r="I3">
-        <v>0.3597500064892135</v>
+        <v>0.4535705444232658</v>
       </c>
       <c r="J3">
-        <v>0.3597500064892135</v>
+        <v>0.4535705444232658</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.066797333333334</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N3">
-        <v>6.200392000000001</v>
+        <v>138.752804</v>
       </c>
       <c r="O3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q3">
-        <v>100.8298935594036</v>
+        <v>3165.47412563569</v>
       </c>
       <c r="R3">
-        <v>907.469042034632</v>
+        <v>28489.26713072121</v>
       </c>
       <c r="S3">
-        <v>0.01538315684357203</v>
+        <v>0.4289203165357394</v>
       </c>
       <c r="T3">
-        <v>0.01538315684357203</v>
+        <v>0.4289203165357394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.78557366666666</v>
+        <v>68.44130066666666</v>
       </c>
       <c r="H4">
-        <v>146.356721</v>
+        <v>205.323902</v>
       </c>
       <c r="I4">
-        <v>0.3597500064892135</v>
+        <v>0.4535705444232658</v>
       </c>
       <c r="J4">
-        <v>0.3597500064892135</v>
+        <v>0.4535705444232658</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01632333333333333</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N4">
-        <v>0.04897</v>
+        <v>7.823689</v>
       </c>
       <c r="O4">
-        <v>0.0003377190931065126</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P4">
-        <v>0.0003377190931065127</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q4">
-        <v>0.7963431808188888</v>
+        <v>178.4878170571642</v>
       </c>
       <c r="R4">
-        <v>7.167088627369999</v>
+        <v>1606.390353514478</v>
       </c>
       <c r="S4">
-        <v>0.0001214944459365992</v>
+        <v>0.02418501872118694</v>
       </c>
       <c r="T4">
-        <v>0.0001214944459365992</v>
+        <v>0.02418501872118695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.11880033333334</v>
+        <v>68.44130066666666</v>
       </c>
       <c r="H5">
-        <v>66.35640100000001</v>
+        <v>205.323902</v>
       </c>
       <c r="I5">
-        <v>0.163106385051841</v>
+        <v>0.4535705444232658</v>
       </c>
       <c r="J5">
-        <v>0.163106385051841</v>
+        <v>0.4535705444232658</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>46.25093466666667</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N5">
-        <v>138.752804</v>
+        <v>0.120943</v>
       </c>
       <c r="O5">
-        <v>0.9569015955251317</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P5">
-        <v>0.9569015955251318</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q5">
-        <v>1023.015189122045</v>
+        <v>2.759165408842889</v>
       </c>
       <c r="R5">
-        <v>9207.136702098405</v>
+        <v>24.832488679586</v>
       </c>
       <c r="S5">
-        <v>0.1560767600964431</v>
+        <v>0.0003738656686374564</v>
       </c>
       <c r="T5">
-        <v>0.1560767600964431</v>
+        <v>0.0003738656686374564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.11880033333334</v>
+        <v>22.11880033333333</v>
       </c>
       <c r="H6">
-        <v>66.35640100000001</v>
+        <v>66.35640099999999</v>
       </c>
       <c r="I6">
-        <v>0.163106385051841</v>
+        <v>0.1465845361127928</v>
       </c>
       <c r="J6">
-        <v>0.163106385051841</v>
+        <v>0.1465845361127928</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.066797333333334</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N6">
-        <v>6.200392000000001</v>
+        <v>0.029549</v>
       </c>
       <c r="O6">
-        <v>0.04276068538176182</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P6">
-        <v>0.04276068538176182</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q6">
-        <v>45.71507754546579</v>
+        <v>0.2178628103498888</v>
       </c>
       <c r="R6">
-        <v>411.4356979091921</v>
+        <v>1.960765293149</v>
       </c>
       <c r="S6">
-        <v>0.006974540814958271</v>
+        <v>2.952031255598222E-05</v>
       </c>
       <c r="T6">
-        <v>0.006974540814958271</v>
+        <v>2.952031255598222E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.11880033333334</v>
+        <v>22.11880033333333</v>
       </c>
       <c r="H7">
-        <v>66.35640100000001</v>
+        <v>66.35640099999999</v>
       </c>
       <c r="I7">
-        <v>0.163106385051841</v>
+        <v>0.1465845361127928</v>
       </c>
       <c r="J7">
-        <v>0.163106385051841</v>
+        <v>0.1465845361127928</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01632333333333333</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N7">
-        <v>0.04897</v>
+        <v>138.752804</v>
       </c>
       <c r="O7">
-        <v>0.0003377190931065126</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P7">
-        <v>0.0003377190931065127</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q7">
-        <v>0.3610525507744445</v>
+        <v>1023.015189122045</v>
       </c>
       <c r="R7">
-        <v>3.24947295697</v>
+        <v>9207.136702098403</v>
       </c>
       <c r="S7">
-        <v>5.508414043958938E-05</v>
+        <v>0.1386180967917338</v>
       </c>
       <c r="T7">
-        <v>5.508414043958939E-05</v>
+        <v>0.1386180967917338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.15144666666667</v>
+        <v>22.11880033333333</v>
       </c>
       <c r="H8">
-        <v>78.45434</v>
+        <v>66.35640099999999</v>
       </c>
       <c r="I8">
-        <v>0.1928435478142952</v>
+        <v>0.1465845361127928</v>
       </c>
       <c r="J8">
-        <v>0.1928435478142952</v>
+        <v>0.1465845361127928</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.25093466666667</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N8">
-        <v>138.752804</v>
+        <v>7.823689</v>
       </c>
       <c r="O8">
-        <v>0.9569015955251317</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P8">
-        <v>0.9569015955251318</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q8">
-        <v>1209.528851218818</v>
+        <v>57.68353828703209</v>
       </c>
       <c r="R8">
-        <v>10885.75966096936</v>
+        <v>519.1518445832889</v>
       </c>
       <c r="S8">
-        <v>0.1845322985902261</v>
+        <v>0.007816093425185286</v>
       </c>
       <c r="T8">
-        <v>0.1845322985902262</v>
+        <v>0.007816093425185286</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.15144666666667</v>
+        <v>22.11880033333333</v>
       </c>
       <c r="H9">
-        <v>78.45434</v>
+        <v>66.35640099999999</v>
       </c>
       <c r="I9">
-        <v>0.1928435478142952</v>
+        <v>0.1465845361127928</v>
       </c>
       <c r="J9">
-        <v>0.1928435478142952</v>
+        <v>0.1465845361127928</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.066797333333334</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N9">
-        <v>6.200392000000001</v>
+        <v>0.120943</v>
       </c>
       <c r="O9">
-        <v>0.04276068538176182</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P9">
-        <v>0.04276068538176182</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q9">
-        <v>54.04974023347557</v>
+        <v>0.8917046895714443</v>
       </c>
       <c r="R9">
-        <v>486.4476621012801</v>
+        <v>8.025342206142998</v>
       </c>
       <c r="S9">
-        <v>0.008246122275989821</v>
+        <v>0.0001208255833178164</v>
       </c>
       <c r="T9">
-        <v>0.008246122275989821</v>
+        <v>0.0001208255833178164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.15144666666667</v>
+        <v>28.16264866666667</v>
       </c>
       <c r="H10">
-        <v>78.45434</v>
+        <v>84.48794600000001</v>
       </c>
       <c r="I10">
-        <v>0.1928435478142952</v>
+        <v>0.1866380060535937</v>
       </c>
       <c r="J10">
-        <v>0.1928435478142952</v>
+        <v>0.1866380060535937</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01632333333333333</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N10">
-        <v>0.04897</v>
+        <v>0.029549</v>
       </c>
       <c r="O10">
-        <v>0.0003377190931065126</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P10">
-        <v>0.0003377190931065127</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q10">
-        <v>0.4268787810888889</v>
+        <v>0.2773927018171111</v>
       </c>
       <c r="R10">
-        <v>3.8419090298</v>
+        <v>2.496534316354</v>
       </c>
       <c r="S10">
-        <v>6.512694807928618E-05</v>
+        <v>3.75865860044602E-05</v>
       </c>
       <c r="T10">
-        <v>6.512694807928621E-05</v>
+        <v>3.75865860044602E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.55383266666666</v>
+        <v>28.16264866666667</v>
       </c>
       <c r="H11">
-        <v>115.661498</v>
+        <v>84.48794600000001</v>
       </c>
       <c r="I11">
-        <v>0.2843000606446502</v>
+        <v>0.1866380060535937</v>
       </c>
       <c r="J11">
-        <v>0.2843000606446502</v>
+        <v>0.1866380060535937</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>138.752804</v>
       </c>
       <c r="O11">
-        <v>0.9569015955251317</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P11">
-        <v>0.9569015955251318</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q11">
-        <v>1783.150795815599</v>
+        <v>1302.548823522287</v>
       </c>
       <c r="R11">
-        <v>16048.35716234039</v>
+        <v>11722.93941170058</v>
       </c>
       <c r="S11">
-        <v>0.2720471816387575</v>
+        <v>0.1764947781957429</v>
       </c>
       <c r="T11">
-        <v>0.2720471816387575</v>
+        <v>0.1764947781957429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.55383266666666</v>
+        <v>28.16264866666667</v>
       </c>
       <c r="H12">
-        <v>115.661498</v>
+        <v>84.48794600000001</v>
       </c>
       <c r="I12">
-        <v>0.2843000606446502</v>
+        <v>0.1866380060535937</v>
       </c>
       <c r="J12">
-        <v>0.2843000606446502</v>
+        <v>0.1866380060535937</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.066797333333334</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N12">
-        <v>6.200392000000001</v>
+        <v>7.823689</v>
       </c>
       <c r="O12">
-        <v>0.04276068538176182</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P12">
-        <v>0.04276068538176182</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q12">
-        <v>79.68295854524622</v>
+        <v>73.44526819475489</v>
       </c>
       <c r="R12">
-        <v>717.146626907216</v>
+        <v>661.007413752794</v>
       </c>
       <c r="S12">
-        <v>0.0121568654472417</v>
+        <v>0.009951800719843282</v>
       </c>
       <c r="T12">
-        <v>0.0121568654472417</v>
+        <v>0.009951800719843284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,46 +1219,294 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.55383266666666</v>
+        <v>28.16264866666667</v>
       </c>
       <c r="H13">
-        <v>115.661498</v>
+        <v>84.48794600000001</v>
       </c>
       <c r="I13">
-        <v>0.2843000606446502</v>
+        <v>0.1866380060535937</v>
       </c>
       <c r="J13">
-        <v>0.2843000606446502</v>
+        <v>0.1866380060535937</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01632333333333333</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N13">
-        <v>0.04897</v>
+        <v>0.120943</v>
       </c>
       <c r="O13">
-        <v>0.0003377190931065126</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P13">
-        <v>0.0003377190931065127</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q13">
-        <v>0.6293270618955554</v>
+        <v>1.135358405897556</v>
       </c>
       <c r="R13">
-        <v>5.66394355706</v>
+        <v>10.218225653078</v>
       </c>
       <c r="S13">
-        <v>9.601355865103781E-05</v>
+        <v>0.0001538405520030265</v>
       </c>
       <c r="T13">
-        <v>9.601355865103784E-05</v>
+        <v>0.0001538405520030265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>32.17175066666667</v>
+      </c>
+      <c r="H14">
+        <v>96.515252</v>
+      </c>
+      <c r="I14">
+        <v>0.2132069134103476</v>
+      </c>
+      <c r="J14">
+        <v>0.2132069134103476</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.009849666666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.029549</v>
+      </c>
+      <c r="O14">
+        <v>0.0002013876315934659</v>
+      </c>
+      <c r="P14">
+        <v>0.0002013876315934659</v>
+      </c>
+      <c r="Q14">
+        <v>0.3168810201497778</v>
+      </c>
+      <c r="R14">
+        <v>2.851929181348</v>
+      </c>
+      <c r="S14">
+        <v>4.293723533106307E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.293723533106307E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>32.17175066666667</v>
+      </c>
+      <c r="H15">
+        <v>96.515252</v>
+      </c>
+      <c r="I15">
+        <v>0.2132069134103476</v>
+      </c>
+      <c r="J15">
+        <v>0.2132069134103476</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N15">
+        <v>138.752804</v>
+      </c>
+      <c r="O15">
+        <v>0.9456529349389956</v>
+      </c>
+      <c r="P15">
+        <v>0.9456529349389956</v>
+      </c>
+      <c r="Q15">
+        <v>1487.97353819629</v>
+      </c>
+      <c r="R15">
+        <v>13391.76184376661</v>
+      </c>
+      <c r="S15">
+        <v>0.2016197434157795</v>
+      </c>
+      <c r="T15">
+        <v>0.2016197434157795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>32.17175066666667</v>
+      </c>
+      <c r="H16">
+        <v>96.515252</v>
+      </c>
+      <c r="I16">
+        <v>0.2132069134103476</v>
+      </c>
+      <c r="J16">
+        <v>0.2132069134103476</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.607896333333333</v>
+      </c>
+      <c r="N16">
+        <v>7.823689</v>
+      </c>
+      <c r="O16">
+        <v>0.05332140505715427</v>
+      </c>
+      <c r="P16">
+        <v>0.05332140505715428</v>
+      </c>
+      <c r="Q16">
+        <v>83.90059060051422</v>
+      </c>
+      <c r="R16">
+        <v>755.1053154046281</v>
+      </c>
+      <c r="S16">
+        <v>0.01136849219093876</v>
+      </c>
+      <c r="T16">
+        <v>0.01136849219093876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>32.17175066666667</v>
+      </c>
+      <c r="H17">
+        <v>96.515252</v>
+      </c>
+      <c r="I17">
+        <v>0.2132069134103476</v>
+      </c>
+      <c r="J17">
+        <v>0.2132069134103476</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.120943</v>
+      </c>
+      <c r="O17">
+        <v>0.0008242723722565416</v>
+      </c>
+      <c r="P17">
+        <v>0.0008242723722565415</v>
+      </c>
+      <c r="Q17">
+        <v>1.296982680292889</v>
+      </c>
+      <c r="R17">
+        <v>11.672844122636</v>
+      </c>
+      <c r="S17">
+        <v>0.0001757405682982423</v>
+      </c>
+      <c r="T17">
+        <v>0.0001757405682982423</v>
       </c>
     </row>
   </sheetData>
